--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Du_AN\apt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB37060-5F88-46DC-833C-862A64210955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63603FE-334B-45CD-8358-6B93DB6827DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -46,66 +46,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Minato - 03</t>
-  </si>
-  <si>
-    <t>Minifigure Minato, cha của Naruto.</t>
-  </si>
-  <si>
-    <t>Sasuke - 04</t>
-  </si>
-  <si>
-    <t>Minifigure Sasuke, bạn thân của Naruto.</t>
-  </si>
-  <si>
-    <t>Boruto - 05</t>
-  </si>
-  <si>
-    <t>Minifigure Boruto, con trai của Naruto.</t>
-  </si>
-  <si>
-    <t>Itachi - 06</t>
-  </si>
-  <si>
-    <t>Minifigure Itachi, anh trai của Sasuke.</t>
-  </si>
-  <si>
-    <t>Obito - 07</t>
-  </si>
-  <si>
-    <t>Minifigure Obito, một nhân vật quan trọng.</t>
-  </si>
-  <si>
-    <t>Kakashi - 08</t>
-  </si>
-  <si>
-    <t>Minifigure Kakashi, thầy của Naruto.</t>
-  </si>
-  <si>
-    <t>Sasori - 09</t>
-  </si>
-  <si>
-    <t>Minifigure Sasori, một nhân vật phản diện.</t>
-  </si>
-  <si>
-    <t>Sasuke - 10</t>
-  </si>
-  <si>
-    <t>Minifigure Sasuke trong dạng mạnh mẽ.</t>
-  </si>
-  <si>
-    <t>Naruto - 11</t>
-  </si>
-  <si>
-    <t>Minifigure Naruto trong bộ đồ ninja.</t>
-  </si>
-  <si>
-    <t>Naruto - 12</t>
-  </si>
-  <si>
-    <t>Minifigure Naruto với biểu cảm quyết tâm.</t>
   </si>
   <si>
     <t>Jiraiya - 13</t>
@@ -363,19 +303,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -680,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,25 +651,25 @@
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5">
-        <v>4</v>
+      <c r="D2" s="3">
+        <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2"/>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -743,8 +677,8 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
+      <c r="D3" s="3">
+        <v>6</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -753,7 +687,7 @@
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -761,17 +695,17 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4">
-        <v>3</v>
+      <c r="D4" s="3">
+        <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -779,17 +713,17 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4">
-        <v>5</v>
+      <c r="D5" s="3">
+        <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -797,17 +731,17 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4">
-        <v>6</v>
+      <c r="D6" s="3">
+        <v>2</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
@@ -815,17 +749,17 @@
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4">
-        <v>2</v>
+      <c r="D7" s="3">
+        <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -833,17 +767,17 @@
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
+      <c r="D8" s="3">
+        <v>4</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -851,17 +785,17 @@
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>5</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -869,17 +803,17 @@
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="4">
-        <v>5</v>
+      <c r="D10" s="3">
+        <v>6</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -887,17 +821,17 @@
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4">
-        <v>2</v>
+      <c r="D11" s="3">
+        <v>1</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -905,17 +839,17 @@
       <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="4">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>2</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
@@ -923,17 +857,17 @@
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="4">
-        <v>6</v>
+      <c r="D13" s="3">
+        <v>3</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>29</v>
@@ -941,17 +875,17 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>4</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>31</v>
@@ -959,17 +893,17 @@
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="4">
-        <v>1</v>
+      <c r="D15" s="3">
+        <v>5</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>33</v>
@@ -977,8 +911,8 @@
       <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="4">
-        <v>2</v>
+      <c r="D16" s="3">
+        <v>6</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -987,7 +921,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>35</v>
@@ -995,8 +929,8 @@
       <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="4">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>1</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -1005,7 +939,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>37</v>
@@ -1013,17 +947,17 @@
       <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="4">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>2</v>
       </c>
       <c r="E18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>39</v>
@@ -1031,17 +965,17 @@
       <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="4">
-        <v>5</v>
+      <c r="D19" s="3">
+        <v>3</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>41</v>
@@ -1049,17 +983,17 @@
       <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="4">
-        <v>6</v>
+      <c r="D20" s="3">
+        <v>4</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>43</v>
@@ -1067,17 +1001,17 @@
       <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="4">
-        <v>1</v>
+      <c r="D21" s="3">
+        <v>5</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>45</v>
@@ -1085,17 +1019,17 @@
       <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="4">
-        <v>2</v>
+      <c r="D22" s="3">
+        <v>6</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>47</v>
@@ -1103,17 +1037,17 @@
       <c r="C23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="4">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>1</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>49</v>
@@ -1121,17 +1055,17 @@
       <c r="C24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="4">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>2</v>
       </c>
       <c r="E24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>51</v>
@@ -1139,17 +1073,17 @@
       <c r="C25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="4">
-        <v>5</v>
+      <c r="D25" s="3">
+        <v>3</v>
       </c>
       <c r="E25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>53</v>
@@ -1157,8 +1091,8 @@
       <c r="C26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="4">
-        <v>6</v>
+      <c r="D26" s="3">
+        <v>4</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -1167,7 +1101,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>55</v>
@@ -1175,17 +1109,17 @@
       <c r="C27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="4">
-        <v>1</v>
+      <c r="D27" s="3">
+        <v>5</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>57</v>
@@ -1193,17 +1127,17 @@
       <c r="C28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="4">
-        <v>2</v>
+      <c r="D28" s="3">
+        <v>6</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>59</v>
@@ -1211,98 +1145,98 @@
       <c r="C29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="4">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>1</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="3">
         <v>4</v>
       </c>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="3">
         <v>5</v>
       </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>43</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="3">
         <v>6</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="4">
-        <v>2</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -1311,52 +1245,52 @@
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>45</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D36" s="3">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>46</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="3">
         <v>3</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35"/>
-    </row>
-    <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="4">
-        <v>4</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="4">
-        <v>5</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
@@ -1365,214 +1299,54 @@
     </row>
     <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>48</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D39" s="3">
         <v>6</v>
       </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="H38"/>
-    </row>
-    <row r="39" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1</v>
-      </c>
       <c r="E39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="4">
-        <v>2</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H40"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="4">
-        <v>3</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="4">
-        <v>4</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0</v>
-      </c>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="4">
-        <v>5</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H43"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="4">
-        <v>6</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
       <c r="H44"/>
-    </row>
-    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="4">
-        <v>2</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="4">
-        <v>3</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="4">
-        <v>4</v>
-      </c>
-      <c r="E48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="4">
-        <v>6</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
